--- a/inventario/Plugin/Excel/Bodega/Solicitud Bodega.xlsx
+++ b/inventario/Plugin/Excel/Bodega/Solicitud Bodega.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>O. de T. No.</t>
   </si>
@@ -29,283 +29,271 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>Ordenado: Descendente</t>
-  </si>
-  <si>
-    <t>Área Saneamiento Ambiental</t>
+    <t>Dirección Hospital</t>
+  </si>
+  <si>
+    <t>Ernesto Gonzalez Choto (Administrador)</t>
+  </si>
+  <si>
+    <t>2022-04-04</t>
+  </si>
+  <si>
+    <t>Unidad Financiara Institucional</t>
   </si>
   <si>
     <t>Baltazar Alexander Marinero Perez (Cliente)</t>
   </si>
   <si>
-    <t>2022-10-05</t>
-  </si>
-  <si>
-    <t>Área Servicios Auxiliares</t>
+    <t>2022-03-30</t>
   </si>
   <si>
     <t>Departamento Mantenimiento Local</t>
   </si>
   <si>
+    <t>René Adán Villalta Pérez (Cliente)</t>
+  </si>
+  <si>
+    <t>2022-02-20</t>
+  </si>
+  <si>
+    <t>Radiologia e imagenes</t>
+  </si>
+  <si>
+    <t>2022-05-16</t>
+  </si>
+  <si>
+    <t>Subdirección Hospital</t>
+  </si>
+  <si>
+    <t>2022-03-21</t>
+  </si>
+  <si>
+    <t>Servicio Consulta Externa</t>
+  </si>
+  <si>
+    <t>2022-05-24</t>
+  </si>
+  <si>
+    <t>Departamento Activo Fijo</t>
+  </si>
+  <si>
+    <t>2022-03-15</t>
+  </si>
+  <si>
+    <t>Servicio Almacén</t>
+  </si>
+  <si>
+    <t>Sección Equipo Básico</t>
+  </si>
+  <si>
+    <t>Unidad Sala de Partos</t>
+  </si>
+  <si>
+    <t>2022-04-05</t>
+  </si>
+  <si>
+    <t>Unidad Máxima Urgencia</t>
+  </si>
+  <si>
+    <t>Anderson Eduardo López Rodriguez (Cliente)</t>
+  </si>
+  <si>
+    <t>EMERGENCIA</t>
+  </si>
+  <si>
+    <t>Yenifer Marisol Campos Yanez (Cliente)</t>
+  </si>
+  <si>
+    <t>2022-04-06</t>
+  </si>
+  <si>
+    <t>2022-03-10</t>
+  </si>
+  <si>
+    <t>Área COVID 19</t>
+  </si>
+  <si>
+    <t>bienestar magisterial</t>
+  </si>
+  <si>
+    <t>Unidad Neonatos</t>
+  </si>
+  <si>
+    <t>2022-03-25</t>
+  </si>
+  <si>
+    <t>LABORATORIO CLINICO</t>
+  </si>
+  <si>
+    <t>2022-03-01</t>
+  </si>
+  <si>
+    <t>Departamento Estadística y Documento Médicos</t>
+  </si>
+  <si>
+    <t>Miguel Antonio Corvera Torres (Cliente)</t>
+  </si>
+  <si>
+    <t>Aérea Servicios Auxiliares</t>
+  </si>
+  <si>
+    <t>Departamento Recursos Humanos</t>
+  </si>
+  <si>
+    <t>Unidad Sala de Operación</t>
+  </si>
+  <si>
+    <t>2022-03-29</t>
+  </si>
+  <si>
+    <t>Departamento Lavandería y Ropería</t>
+  </si>
+  <si>
     <t>Fransico Tolentino López (Cliente)</t>
   </si>
   <si>
+    <t>Servicio Medicina Hombres</t>
+  </si>
+  <si>
+    <t>Ronald Alexander Lopez Cisnero (Cliente)</t>
+  </si>
+  <si>
+    <t>2022-04-29</t>
+  </si>
+  <si>
+    <t>2022-04-01</t>
+  </si>
+  <si>
+    <t>2022-05-31</t>
+  </si>
+  <si>
+    <t>DIVISIÓN ADMINISTRATIVA</t>
+  </si>
+  <si>
+    <t>José Domingo Echeverría (Cliente)</t>
+  </si>
+  <si>
+    <t>Servicio Medicina Mujeres</t>
+  </si>
+  <si>
+    <t>2022-04-08</t>
+  </si>
+  <si>
+    <t>Servicio Centro Quirúrgico</t>
+  </si>
+  <si>
+    <t>Napoleón Alfredo Rodas (Cliente)</t>
+  </si>
+  <si>
+    <t>FISIOTERAPIA</t>
+  </si>
+  <si>
+    <t>2022-04-07</t>
+  </si>
+  <si>
+    <t>Área Residencial Médica</t>
+  </si>
+  <si>
+    <t>0000-00-00</t>
+  </si>
+  <si>
+    <t>Napoleon Alfredo Rodas (Cliente)</t>
+  </si>
+  <si>
+    <t>Sección Equipo Médico</t>
+  </si>
+  <si>
+    <t>2022-05-11</t>
+  </si>
+  <si>
+    <t>Kilmar Waldir Pérez Marin (Cliente)</t>
+  </si>
+  <si>
+    <t>2022-05-20</t>
+  </si>
+  <si>
+    <t>2022-05-06</t>
+  </si>
+  <si>
+    <t>2022-05-17</t>
+  </si>
+  <si>
+    <t>2022-05-30</t>
+  </si>
+  <si>
+    <t>2022-05-25</t>
+  </si>
+  <si>
+    <t>2022-05-04</t>
+  </si>
+  <si>
+    <t>cirugia Hombre</t>
+  </si>
+  <si>
+    <t>Servicio Trabajo Social</t>
+  </si>
+  <si>
+    <t>2022-05-09</t>
+  </si>
+  <si>
+    <t>FARMACIA</t>
+  </si>
+  <si>
+    <t>Kevin Alexander Guevara Marinero (Cliente)</t>
+  </si>
+  <si>
+    <t>2022-05-23</t>
+  </si>
+  <si>
+    <t>Servicio Obstetricia</t>
+  </si>
+  <si>
+    <t>2022-05-27</t>
+  </si>
+  <si>
+    <t>Pediatría</t>
+  </si>
+  <si>
+    <t>2022-05-01</t>
+  </si>
+  <si>
+    <t>GINECOLOGIA</t>
+  </si>
+  <si>
+    <t>Sección Planta Física y Monitoreo</t>
+  </si>
+  <si>
+    <t>2022-03-28</t>
+  </si>
+  <si>
+    <t>2022-05-05</t>
+  </si>
+  <si>
+    <t>2022-05-18</t>
+  </si>
+  <si>
+    <t>2022-03-03</t>
+  </si>
+  <si>
+    <t>2022-02-25</t>
+  </si>
+  <si>
+    <t>2022-02-26</t>
+  </si>
+  <si>
+    <t>Ernesto Choto (Cliente)</t>
+  </si>
+  <si>
+    <t>2022-03-05</t>
+  </si>
+  <si>
+    <t>2022-03-02</t>
+  </si>
+  <si>
+    <t>2022-03-04</t>
+  </si>
+  <si>
     <t>2022-05-03</t>
-  </si>
-  <si>
-    <t>René Adán Villalta Pérez (Cliente)</t>
-  </si>
-  <si>
-    <t>Unidad Sala de Operación</t>
-  </si>
-  <si>
-    <t>Miguel Antonio Corvera Torres (Cliente)</t>
-  </si>
-  <si>
-    <t>José Domingo Echeverría (Cliente)</t>
-  </si>
-  <si>
-    <t>Ernesto Gonzalez Choto (Administrador)</t>
-  </si>
-  <si>
-    <t>2022-03-01</t>
-  </si>
-  <si>
-    <t>2022-02-25</t>
-  </si>
-  <si>
-    <t>2022-03-04</t>
-  </si>
-  <si>
-    <t>2022-02-26</t>
-  </si>
-  <si>
-    <t>2022-03-03</t>
-  </si>
-  <si>
-    <t>Unidad Neonatos</t>
-  </si>
-  <si>
-    <t>2022-05-01</t>
-  </si>
-  <si>
-    <t>2022-03-02</t>
-  </si>
-  <si>
-    <t>Ernesto Choto (Cliente)</t>
-  </si>
-  <si>
-    <t>2022-03-05</t>
-  </si>
-  <si>
-    <t>DIVISIÓN ADMINISTRATIVA</t>
-  </si>
-  <si>
-    <t>Yenifer Marisol Campos Yanez (Cliente)</t>
-  </si>
-  <si>
-    <t>2022-04-01</t>
-  </si>
-  <si>
-    <t>2022-04-05</t>
-  </si>
-  <si>
-    <t>Unidad Máxima Urgencia</t>
-  </si>
-  <si>
-    <t>Pediatría</t>
-  </si>
-  <si>
-    <t>Napoleon Alfredo Rodas (Cliente)</t>
-  </si>
-  <si>
-    <t>2022-05-18</t>
-  </si>
-  <si>
-    <t>Servicio Medicina Mujeres</t>
-  </si>
-  <si>
-    <t>FISIOTERAPIA</t>
-  </si>
-  <si>
-    <t>2022-05-31</t>
-  </si>
-  <si>
-    <t>2022-05-23</t>
-  </si>
-  <si>
-    <t>Área COVID 19</t>
-  </si>
-  <si>
-    <t>0000-00-00</t>
-  </si>
-  <si>
-    <t>2022-05-17</t>
-  </si>
-  <si>
-    <t>Aérea Servicios Auxiliares</t>
-  </si>
-  <si>
-    <t>Kevin Alexander Guevara Marinero (Cliente)</t>
-  </si>
-  <si>
-    <t>2022-05-25</t>
-  </si>
-  <si>
-    <t>bienestar magisterial</t>
-  </si>
-  <si>
-    <t>FARMACIA</t>
-  </si>
-  <si>
-    <t>2022-05-11</t>
-  </si>
-  <si>
-    <t>LABORATORIO CLINICO</t>
-  </si>
-  <si>
-    <t>2022-05-16</t>
-  </si>
-  <si>
-    <t>Servicio Trabajo Social</t>
-  </si>
-  <si>
-    <t>Dirección Hospital</t>
-  </si>
-  <si>
-    <t>2022-05-09</t>
-  </si>
-  <si>
-    <t>2022-05-05</t>
-  </si>
-  <si>
-    <t>2022-04-07</t>
-  </si>
-  <si>
-    <t>Servicio Almacén</t>
-  </si>
-  <si>
-    <t>2022-04-06</t>
-  </si>
-  <si>
-    <t>2022-02-20</t>
-  </si>
-  <si>
-    <t>Anderson Eduardo López Rodriguez (Cliente)</t>
-  </si>
-  <si>
-    <t>2022-04-04</t>
-  </si>
-  <si>
-    <t>Unidad Financiara Institucional</t>
-  </si>
-  <si>
-    <t>2022-03-15</t>
-  </si>
-  <si>
-    <t>Sección Planta Física y Monitoreo</t>
-  </si>
-  <si>
-    <t>2022-03-28</t>
-  </si>
-  <si>
-    <t>GINECOLOGIA</t>
-  </si>
-  <si>
-    <t>Radiologia e imagenes</t>
-  </si>
-  <si>
-    <t>2022-05-30</t>
-  </si>
-  <si>
-    <t>Servicio Obstetricia</t>
-  </si>
-  <si>
-    <t>2022-05-27</t>
-  </si>
-  <si>
-    <t>Sección Equipo Básico</t>
-  </si>
-  <si>
-    <t>2022-05-24</t>
-  </si>
-  <si>
-    <t>2022-05-20</t>
-  </si>
-  <si>
-    <t>Servicio Consulta Externa</t>
-  </si>
-  <si>
-    <t>Unidad Sala de Partos</t>
-  </si>
-  <si>
-    <t>cirugia Hombre</t>
-  </si>
-  <si>
-    <t>2022-05-06</t>
-  </si>
-  <si>
-    <t>EMERGENCIA</t>
-  </si>
-  <si>
-    <t>2022-05-04</t>
-  </si>
-  <si>
-    <t>Departamento Estadística y Documento Médicos</t>
-  </si>
-  <si>
-    <t>Kilmar Waldir Pérez Marin (Cliente)</t>
-  </si>
-  <si>
-    <t>2022-04-29</t>
-  </si>
-  <si>
-    <t>Sección Equipo Médico</t>
-  </si>
-  <si>
-    <t>Área Residencial Médica</t>
-  </si>
-  <si>
-    <t>Servicio Centro Quirúrgico</t>
-  </si>
-  <si>
-    <t>Napoleón Alfredo Rodas (Cliente)</t>
-  </si>
-  <si>
-    <t>2022-04-08</t>
-  </si>
-  <si>
-    <t>Servicio Medicina Hombres</t>
-  </si>
-  <si>
-    <t>Ronald Alexander Lopez Cisnero (Cliente)</t>
-  </si>
-  <si>
-    <t>Departamento Lavandería y Ropería</t>
-  </si>
-  <si>
-    <t>2022-03-30</t>
-  </si>
-  <si>
-    <t>2022-03-29</t>
-  </si>
-  <si>
-    <t>2022-03-25</t>
-  </si>
-  <si>
-    <t>Departamento Recursos Humanos</t>
-  </si>
-  <si>
-    <t>2022-03-10</t>
-  </si>
-  <si>
-    <t>Subdirección Hospital</t>
-  </si>
-  <si>
-    <t>Departamento Activo Fijo</t>
-  </si>
-  <si>
-    <t>2022-03-21</t>
   </si>
 </sst>
 </file>
@@ -641,7 +629,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F264"/>
+  <dimension ref="A1:F258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,1797 +645,1806 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="E1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>408030527</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>408030526</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>408030525</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>408030524</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>408030523</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>408030522</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>407030522</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>406030522</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>405030522</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>28022220</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
         <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>28022219</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>28022218</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>28022216</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>28022214</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>28022212</v>
+        <v>209</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>28022211</v>
+        <v>215</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>28022210</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>28022209</v>
+        <v>224</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>28022208</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>28022206</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>28022205</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>28022204</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>28022203</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>28022202</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>28022201</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
         <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>15320224</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>15320223</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>15320221</v>
+        <v>263</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>3032219</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>3032218</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>3032217</v>
+        <v>269</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>3032216</v>
+        <v>273</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>3032215</v>
+        <v>278</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>3032214</v>
+        <v>280</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>3032213</v>
+        <v>281</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>3032212</v>
+        <v>282</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>3032211</v>
+        <v>284</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>3032210</v>
+        <v>287</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>3032209</v>
+        <v>294</v>
       </c>
       <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" t="s">
         <v>9</v>
-      </c>
-      <c r="C41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>3032208</v>
+        <v>297</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>3032207</v>
+        <v>301</v>
       </c>
       <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" t="s">
         <v>9</v>
-      </c>
-      <c r="C43" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>3032206</v>
+        <v>302</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>3032205</v>
+        <v>303</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D45" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>3032204</v>
+        <v>304</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>3032203</v>
+        <v>308</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>3032202</v>
+        <v>309</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D48" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>3032201</v>
+        <v>310</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>3032200</v>
+        <v>312</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D50" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>2822221</v>
+        <v>313</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>2502229</v>
+        <v>314</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D52" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>2502228</v>
+        <v>315</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>2502227</v>
+        <v>316</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>2502226</v>
+        <v>317</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>2502225</v>
+        <v>319</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D56" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>2502224</v>
+        <v>322</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D57" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>2502223</v>
+        <v>323</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D58" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>2502222</v>
+        <v>326</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D59" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>2502221</v>
+        <v>333</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D60" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>2032217</v>
+        <v>339</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>2032216</v>
+        <v>342</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>2032214</v>
+        <v>354</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D63" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>2032213</v>
+        <v>356</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>2032212</v>
+        <v>357</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D65" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>2032211</v>
+        <v>358</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C66" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D66" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>2032210</v>
+        <v>359</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D67" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>2032209</v>
+        <v>365</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C68" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>2032208</v>
+        <v>387</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C69" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D69" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>2032207</v>
+        <v>388</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C70" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D70" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>2032206</v>
+        <v>390</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C71" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>2032205</v>
+        <v>396</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C72" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>2032204</v>
+        <v>397</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C73" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D73" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>2032203</v>
+        <v>401</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>2032202</v>
+        <v>402</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D75" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>2032201</v>
+        <v>405</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D76" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>1532022</v>
+        <v>409</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C77" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D77" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>1062022</v>
+        <v>411</v>
       </c>
       <c r="B78" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D78" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>1032227</v>
+        <v>412</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D79" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>1032226</v>
+        <v>418</v>
       </c>
       <c r="B80" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D80" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>1032225</v>
+        <v>419</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D81" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>1032224</v>
+        <v>420</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C82" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D82" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>1032222</v>
+        <v>422</v>
       </c>
       <c r="B83" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D83" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>1032220</v>
+        <v>425</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C84" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D84" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>1032217</v>
+        <v>426</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="C85" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D85" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>1032216</v>
+        <v>427</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D86" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>1032215</v>
+        <v>430</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C87" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D87" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>1032214</v>
+        <v>432</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C88" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D88" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>1032213</v>
+        <v>433</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C89" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D89" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>1032212</v>
+        <v>445</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D90" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>1032211</v>
+        <v>449</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C91" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="D91" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>1032210</v>
+        <v>450</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D92" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>1032209</v>
+        <v>451</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D93" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>1032208</v>
+        <v>452</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C94" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D94" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>1032207</v>
+        <v>453</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C95" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D95" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>1032206</v>
+        <v>478</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C96" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D96" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>1032205</v>
+        <v>482</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C97" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D97" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>1032204</v>
+        <v>483</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C98" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>1032203</v>
+        <v>486</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C99" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D99" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>1032202</v>
+        <v>496</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="C100" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D100" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>1032201</v>
+        <v>497</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D101" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>403227</v>
+        <v>500</v>
       </c>
       <c r="B102" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C102" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D102" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>403226</v>
+        <v>501</v>
       </c>
       <c r="B103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D103" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>403225</v>
+        <v>502</v>
       </c>
       <c r="B104" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="C104" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D104" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>403223</v>
+        <v>504</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="C105" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D105" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>403222</v>
+        <v>512</v>
       </c>
       <c r="B106" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C106" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D106" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>403221</v>
+        <v>514</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C107" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D107" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>403220</v>
+        <v>515</v>
       </c>
       <c r="B108" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="C108" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D108" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>250222</v>
+        <v>516</v>
       </c>
       <c r="B109" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C109" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D109" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>212121</v>
+        <v>517</v>
       </c>
       <c r="B110" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D110" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>210422</v>
+        <v>518</v>
       </c>
       <c r="B111" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D111" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>203220</v>
+        <v>519</v>
       </c>
       <c r="B112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="D112" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>150322</v>
+        <v>529</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="C113" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D113" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>90222</v>
+        <v>554</v>
       </c>
       <c r="B114" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D114" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>70222</v>
+        <v>1520</v>
       </c>
       <c r="B115" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D115" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>45111</v>
+        <v>1701</v>
       </c>
       <c r="B116" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C116" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D116" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>31601</v>
+        <v>2301</v>
       </c>
       <c r="B117" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D117" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>5181</v>
+        <v>2451</v>
       </c>
       <c r="B118" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C118" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D118" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>5161</v>
+        <v>2641</v>
       </c>
       <c r="B119" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C119" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D119" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>5151</v>
+        <v>2971</v>
       </c>
       <c r="B120" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D120" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>4822</v>
+        <v>2972</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>4821</v>
+        <v>3041</v>
       </c>
       <c r="B122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D122" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>4521</v>
+        <v>3042</v>
       </c>
       <c r="B123" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C123" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D123" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>4512</v>
+        <v>3043</v>
       </c>
       <c r="B124" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C124" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D124" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>4511</v>
+        <v>3081</v>
       </c>
       <c r="B125" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C125" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D125" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>4491</v>
+        <v>3082</v>
       </c>
       <c r="B126" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C126" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D126" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>4331</v>
+        <v>3091</v>
       </c>
       <c r="B127" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C127" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D127" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>4321</v>
+        <v>3101</v>
       </c>
       <c r="B128" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C128" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>4301</v>
+        <v>3131</v>
       </c>
       <c r="B129" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C129" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D129" t="s">
         <v>49</v>
@@ -2455,44 +2452,44 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130">
-        <v>4261</v>
+        <v>3141</v>
       </c>
       <c r="B130" t="s">
         <v>50</v>
       </c>
       <c r="C130" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D130" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131">
-        <v>4191</v>
+        <v>3151</v>
       </c>
       <c r="B131" t="s">
+        <v>21</v>
+      </c>
+      <c r="C131" t="s">
         <v>51</v>
       </c>
-      <c r="C131" t="s">
-        <v>10</v>
-      </c>
       <c r="D131" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132">
-        <v>4051</v>
+        <v>3152</v>
       </c>
       <c r="B132" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C132" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D132" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -2500,1847 +2497,1763 @@
         <v>3871</v>
       </c>
       <c r="B133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C133" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D133" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134">
-        <v>3152</v>
+        <v>4051</v>
       </c>
       <c r="B134" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C134" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D134" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135">
-        <v>3151</v>
+        <v>4191</v>
       </c>
       <c r="B135" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D135" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136">
-        <v>3141</v>
+        <v>4261</v>
       </c>
       <c r="B136" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="C136" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D136" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137">
-        <v>3131</v>
+        <v>4301</v>
       </c>
       <c r="B137" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C137" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D137" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138">
-        <v>3101</v>
+        <v>4321</v>
       </c>
       <c r="B138" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C138" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D138" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139">
-        <v>3091</v>
+        <v>4331</v>
       </c>
       <c r="B139" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C139" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D139" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140">
-        <v>3082</v>
+        <v>4491</v>
       </c>
       <c r="B140" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C140" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="D140" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141">
-        <v>3081</v>
+        <v>4511</v>
       </c>
       <c r="B141" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C141" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D141" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142">
-        <v>3043</v>
+        <v>4512</v>
       </c>
       <c r="B142" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="C142" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D142" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143">
-        <v>3042</v>
+        <v>4521</v>
       </c>
       <c r="B143" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C143" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D143" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144">
-        <v>3041</v>
+        <v>4821</v>
       </c>
       <c r="B144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C144" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="D144" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145">
-        <v>2972</v>
+        <v>4822</v>
       </c>
       <c r="B145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C145" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="D145" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146">
-        <v>2971</v>
+        <v>5151</v>
       </c>
       <c r="B146" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="C146" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="D146" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147">
-        <v>2641</v>
+        <v>5161</v>
       </c>
       <c r="B147" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C147" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D147" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148">
-        <v>2451</v>
+        <v>5181</v>
       </c>
       <c r="B148" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C148" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D148" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149">
-        <v>2301</v>
+        <v>31601</v>
       </c>
       <c r="B149" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C149" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D149" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150">
-        <v>1701</v>
+        <v>45111</v>
       </c>
       <c r="B150" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="C150" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D150" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151">
-        <v>1520</v>
+        <v>70222</v>
       </c>
       <c r="B151" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="C151" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D151" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152">
-        <v>554</v>
+        <v>90222</v>
       </c>
       <c r="B152" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C152" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D152" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153">
-        <v>529</v>
+        <v>150322</v>
       </c>
       <c r="B153" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="C153" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D153" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154">
-        <v>519</v>
+        <v>203220</v>
       </c>
       <c r="B154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C154" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="D154" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155">
-        <v>518</v>
+        <v>210422</v>
       </c>
       <c r="B155" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C155" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D155" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156">
-        <v>517</v>
+        <v>212121</v>
       </c>
       <c r="B156" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="C156" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D156" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157">
-        <v>516</v>
+        <v>250222</v>
       </c>
       <c r="B157" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C157" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D157" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158">
-        <v>515</v>
+        <v>403220</v>
       </c>
       <c r="B158" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C158" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="D158" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159">
-        <v>514</v>
+        <v>403221</v>
       </c>
       <c r="B159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C159" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="D159" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160">
-        <v>512</v>
+        <v>403222</v>
       </c>
       <c r="B160" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C160" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="D160" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161">
-        <v>504</v>
+        <v>403223</v>
       </c>
       <c r="B161" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C161" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="D161" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162">
-        <v>502</v>
+        <v>403225</v>
       </c>
       <c r="B162" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="C162" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="D162" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163">
-        <v>501</v>
+        <v>403226</v>
       </c>
       <c r="B163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C163" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="D163" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164">
-        <v>500</v>
+        <v>403227</v>
       </c>
       <c r="B164" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C164" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="D164" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165">
-        <v>497</v>
+        <v>1032201</v>
       </c>
       <c r="B165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C165" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D165" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166">
-        <v>496</v>
+        <v>1032202</v>
       </c>
       <c r="B166" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="C166" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="D166" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167">
-        <v>486</v>
+        <v>1032203</v>
       </c>
       <c r="B167" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="C167" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D167" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168">
-        <v>483</v>
+        <v>1032204</v>
       </c>
       <c r="B168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C168" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D168" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169">
-        <v>482</v>
+        <v>1032205</v>
       </c>
       <c r="B169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C169" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D169" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170">
-        <v>478</v>
+        <v>1032206</v>
       </c>
       <c r="B170" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="C170" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D170" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171">
-        <v>453</v>
+        <v>1032207</v>
       </c>
       <c r="B171" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C171" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D171" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172">
-        <v>452</v>
+        <v>1032208</v>
       </c>
       <c r="B172" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C172" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D172" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173">
-        <v>451</v>
+        <v>1032209</v>
       </c>
       <c r="B173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C173" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D173" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174">
-        <v>450</v>
+        <v>1032210</v>
       </c>
       <c r="B174" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C174" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D174" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175">
-        <v>449</v>
+        <v>1032211</v>
       </c>
       <c r="B175" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C175" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="D175" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176">
-        <v>445</v>
+        <v>1032212</v>
       </c>
       <c r="B176" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C176" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D176" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177">
-        <v>433</v>
+        <v>1032213</v>
       </c>
       <c r="B177" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C177" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D177" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178">
-        <v>432</v>
+        <v>1032214</v>
       </c>
       <c r="B178" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C178" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D178" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179">
-        <v>430</v>
+        <v>1032215</v>
       </c>
       <c r="B179" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C179" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D179" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180">
-        <v>427</v>
+        <v>1032216</v>
       </c>
       <c r="B180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C180" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D180" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181">
-        <v>426</v>
+        <v>1032217</v>
       </c>
       <c r="B181" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C181" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D181" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182">
-        <v>425</v>
+        <v>1032220</v>
       </c>
       <c r="B182" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="C182" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D182" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183">
-        <v>422</v>
+        <v>1032222</v>
       </c>
       <c r="B183" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C183" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D183" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184">
-        <v>420</v>
+        <v>1032224</v>
       </c>
       <c r="B184" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="C184" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D184" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185">
-        <v>419</v>
+        <v>1032225</v>
       </c>
       <c r="B185" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C185" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D185" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186">
-        <v>418</v>
+        <v>1032226</v>
       </c>
       <c r="B186" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C186" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D186" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187">
-        <v>412</v>
+        <v>1032227</v>
       </c>
       <c r="B187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C187" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D187" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188">
-        <v>411</v>
+        <v>1062022</v>
       </c>
       <c r="B188" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="C188" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D188" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189">
-        <v>409</v>
+        <v>1532022</v>
       </c>
       <c r="B189" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="C189" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D189" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190">
-        <v>405</v>
+        <v>2032201</v>
       </c>
       <c r="B190" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C190" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="D190" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191">
-        <v>402</v>
+        <v>2032202</v>
       </c>
       <c r="B191" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="C191" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D191" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192">
-        <v>401</v>
+        <v>2032203</v>
       </c>
       <c r="B192" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="C192" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D192" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193">
-        <v>397</v>
+        <v>2032204</v>
       </c>
       <c r="B193" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="C193" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D193" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194">
-        <v>396</v>
+        <v>2032205</v>
       </c>
       <c r="B194" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="C194" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D194" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195">
-        <v>390</v>
+        <v>2032206</v>
       </c>
       <c r="B195" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C195" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="D195" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196">
-        <v>388</v>
+        <v>2032207</v>
       </c>
       <c r="B196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C196" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D196" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197">
-        <v>387</v>
+        <v>2032208</v>
       </c>
       <c r="B197" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="C197" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D197" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198">
-        <v>365</v>
+        <v>2032209</v>
       </c>
       <c r="B198" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C198" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="D198" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199">
-        <v>359</v>
+        <v>2032210</v>
       </c>
       <c r="B199" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C199" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D199" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200">
-        <v>358</v>
+        <v>2032211</v>
       </c>
       <c r="B200" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C200" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D200" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201">
-        <v>357</v>
+        <v>2032212</v>
       </c>
       <c r="B201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C201" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D201" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202">
-        <v>356</v>
+        <v>2032213</v>
       </c>
       <c r="B202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C202" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D202" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203">
-        <v>354</v>
+        <v>2032214</v>
       </c>
       <c r="B203" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C203" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D203" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204">
-        <v>342</v>
+        <v>2032216</v>
       </c>
       <c r="B204" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="C204" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D204" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205">
-        <v>339</v>
+        <v>2032217</v>
       </c>
       <c r="B205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C205" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="D205" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206">
-        <v>333</v>
+        <v>2502221</v>
       </c>
       <c r="B206" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C206" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="D206" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207">
-        <v>326</v>
+        <v>2502222</v>
       </c>
       <c r="B207" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="C207" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D207" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208">
-        <v>323</v>
+        <v>2502223</v>
       </c>
       <c r="B208" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C208" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="D208" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209">
-        <v>322</v>
+        <v>2502224</v>
       </c>
       <c r="B209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C209" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D209" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210">
-        <v>319</v>
+        <v>2502225</v>
       </c>
       <c r="B210" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="C210" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="D210" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211">
-        <v>317</v>
+        <v>2502226</v>
       </c>
       <c r="B211" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C211" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D211" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212">
-        <v>316</v>
+        <v>2502227</v>
       </c>
       <c r="B212" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C212" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D212" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213">
-        <v>315</v>
+        <v>2502228</v>
       </c>
       <c r="B213" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="C213" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D213" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214">
-        <v>314</v>
+        <v>2502229</v>
       </c>
       <c r="B214" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C214" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D214" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215">
-        <v>313</v>
+        <v>2822221</v>
       </c>
       <c r="B215" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C215" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="D215" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216">
-        <v>312</v>
+        <v>3032200</v>
       </c>
       <c r="B216" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C216" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D216" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217">
-        <v>310</v>
+        <v>3032201</v>
       </c>
       <c r="B217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C217" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="D217" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218">
-        <v>309</v>
+        <v>3032202</v>
       </c>
       <c r="B218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C218" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D218" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219">
-        <v>308</v>
+        <v>3032203</v>
       </c>
       <c r="B219" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C219" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D219" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220">
-        <v>304</v>
+        <v>3032204</v>
       </c>
       <c r="B220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C220" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="D220" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221">
-        <v>303</v>
+        <v>3032205</v>
       </c>
       <c r="B221" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="C221" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="D221" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222">
-        <v>302</v>
+        <v>3032206</v>
       </c>
       <c r="B222" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="C222" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D222" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223">
-        <v>301</v>
+        <v>3032207</v>
       </c>
       <c r="B223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C223" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D223" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224">
-        <v>297</v>
+        <v>3032208</v>
       </c>
       <c r="B224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C224" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="D224" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225">
-        <v>294</v>
+        <v>3032209</v>
       </c>
       <c r="B225" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C225" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D225" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226">
-        <v>287</v>
+        <v>3032210</v>
       </c>
       <c r="B226" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="C226" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D226" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227">
-        <v>284</v>
+        <v>3032211</v>
       </c>
       <c r="B227" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="C227" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="D227" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228">
-        <v>282</v>
+        <v>3032212</v>
       </c>
       <c r="B228" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C228" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D228" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229">
-        <v>281</v>
+        <v>3032213</v>
       </c>
       <c r="B229" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C229" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D229" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230">
-        <v>280</v>
+        <v>3032214</v>
       </c>
       <c r="B230" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C230" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D230" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231">
-        <v>278</v>
+        <v>3032215</v>
       </c>
       <c r="B231" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C231" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D231" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232">
-        <v>273</v>
+        <v>3032216</v>
       </c>
       <c r="B232" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C232" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D232" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233">
-        <v>269</v>
+        <v>3032217</v>
       </c>
       <c r="B233" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C233" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D233" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234">
-        <v>268</v>
+        <v>3032218</v>
       </c>
       <c r="B234" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="C234" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D234" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235">
-        <v>264</v>
+        <v>3032219</v>
       </c>
       <c r="B235" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C235" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D235" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236">
-        <v>263</v>
+        <v>15320221</v>
       </c>
       <c r="B236" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="C236" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D236" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237">
-        <v>260</v>
+        <v>15320223</v>
       </c>
       <c r="B237" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="C237" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D237" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238">
-        <v>257</v>
+        <v>15320224</v>
       </c>
       <c r="B238" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C238" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D238" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239">
-        <v>255</v>
+        <v>28022201</v>
       </c>
       <c r="B239" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="C239" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D239" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240">
-        <v>245</v>
+        <v>28022202</v>
       </c>
       <c r="B240" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="C240" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D240" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241">
-        <v>236</v>
+        <v>28022203</v>
       </c>
       <c r="B241" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="C241" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D241" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242">
-        <v>231</v>
+        <v>28022204</v>
       </c>
       <c r="B242" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C242" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D242" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243">
-        <v>230</v>
+        <v>28022205</v>
       </c>
       <c r="B243" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C243" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D243" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244">
-        <v>229</v>
+        <v>28022206</v>
       </c>
       <c r="B244" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C244" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D244" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245">
-        <v>228</v>
+        <v>28022208</v>
       </c>
       <c r="B245" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C245" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D245" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246">
-        <v>224</v>
+        <v>28022209</v>
       </c>
       <c r="B246" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C246" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D246" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247">
-        <v>218</v>
+        <v>28022210</v>
       </c>
       <c r="B247" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C247" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D247" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248">
-        <v>215</v>
+        <v>28022211</v>
       </c>
       <c r="B248" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C248" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D248" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249">
-        <v>209</v>
+        <v>28022212</v>
       </c>
       <c r="B249" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C249" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D249" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250">
-        <v>188</v>
+        <v>28022214</v>
       </c>
       <c r="B250" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C250" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D250" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251">
-        <v>179</v>
+        <v>28022216</v>
       </c>
       <c r="B251" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="C251" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D251" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252">
-        <v>170</v>
+        <v>28022218</v>
       </c>
       <c r="B252" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C252" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="D252" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253">
-        <v>151</v>
+        <v>28022219</v>
       </c>
       <c r="B253" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C253" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D253" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254">
-        <v>148</v>
+        <v>28022220</v>
       </c>
       <c r="B254" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="C254" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D254" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255">
-        <v>123</v>
+        <v>405030522</v>
       </c>
       <c r="B255" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="C255" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D255" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256">
-        <v>113</v>
+        <v>406030522</v>
       </c>
       <c r="B256" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C256" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D256" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257">
-        <v>102</v>
+        <v>407030522</v>
       </c>
       <c r="B257" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="C257" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D257" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258">
-        <v>46</v>
+        <v>408030522</v>
       </c>
       <c r="B258" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="C258" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D258" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6">
-      <c r="A259">
-        <v>45</v>
-      </c>
-      <c r="B259" t="s">
-        <v>94</v>
-      </c>
-      <c r="C259" t="s">
-        <v>16</v>
-      </c>
-      <c r="D259" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6">
-      <c r="A260">
-        <v>42</v>
-      </c>
-      <c r="B260" t="s">
-        <v>51</v>
-      </c>
-      <c r="C260" t="s">
-        <v>6</v>
-      </c>
-      <c r="D260" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6">
-      <c r="A261">
-        <v>40</v>
-      </c>
-      <c r="B261" t="s">
-        <v>65</v>
-      </c>
-      <c r="C261" t="s">
-        <v>6</v>
-      </c>
-      <c r="D261" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6">
-      <c r="A262">
-        <v>33</v>
-      </c>
-      <c r="B262" t="s">
-        <v>9</v>
-      </c>
-      <c r="C262" t="s">
-        <v>12</v>
-      </c>
-      <c r="D262" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6">
-      <c r="A263">
-        <v>32</v>
-      </c>
-      <c r="B263" t="s">
-        <v>60</v>
-      </c>
-      <c r="C263" t="s">
-        <v>6</v>
-      </c>
-      <c r="D263" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6">
-      <c r="A264">
-        <v>5</v>
-      </c>
-      <c r="B264" t="s">
-        <v>51</v>
-      </c>
-      <c r="C264" t="s">
-        <v>16</v>
-      </c>
-      <c r="D264" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
